--- a/doc/PETR4cg_3anos.xlsx
+++ b/doc/PETR4cg_3anos.xlsx
@@ -248,6 +248,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4757,6 +4760,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/PETR4cg_3anos.xlsx
+++ b/doc/PETR4cg_3anos.xlsx
@@ -256,9 +256,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$748</c:f>
+              <c:f>Retornos!$D$2:$D$747</c:f>
               <c:strCache>
-                <c:ptCount val="747"/>
+                <c:ptCount val="746"/>
                 <c:pt idx="0">
                   <c:v>07/2024</c:v>
                 </c:pt>
@@ -2495,9 +2495,6 @@
                   <c:v>07/2021</c:v>
                 </c:pt>
                 <c:pt idx="745">
-                  <c:v>07/2021</c:v>
-                </c:pt>
-                <c:pt idx="746">
                   <c:v>07/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -2505,10 +2502,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$748</c:f>
+              <c:f>Retornos!$B$2:$B$747</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="747"/>
+                <c:ptCount val="746"/>
                 <c:pt idx="0">
                   <c:v>0.002604166666666741</c:v>
                 </c:pt>
@@ -4746,9 +4743,6 @@
                 </c:pt>
                 <c:pt idx="745">
                   <c:v>-0.01334180432020338</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>-0.01352221506761098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,9 +4762,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$748</c:f>
+              <c:f>Retornos!$D$2:$D$747</c:f>
               <c:strCache>
-                <c:ptCount val="747"/>
+                <c:ptCount val="746"/>
                 <c:pt idx="0">
                   <c:v>07/2024</c:v>
                 </c:pt>
@@ -7007,9 +7001,6 @@
                   <c:v>07/2021</c:v>
                 </c:pt>
                 <c:pt idx="745">
-                  <c:v>07/2021</c:v>
-                </c:pt>
-                <c:pt idx="746">
                   <c:v>07/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -7017,10 +7008,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$748</c:f>
+              <c:f>Retornos!$C$2:$C$747</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="747"/>
+                <c:ptCount val="746"/>
                 <c:pt idx="0">
                   <c:v>0.003289448164037978</c:v>
                 </c:pt>
@@ -9258,9 +9249,6 @@
                 </c:pt>
                 <c:pt idx="745">
                   <c:v>0.008087141766148109</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>-0.01242457923150209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9672,6 +9660,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -20155,6 +20148,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
